--- a/virtualGameServer/src/main/resources/excel/ItemRes.xlsx
+++ b/virtualGameServer/src/main/resources/excel/ItemRes.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <t>道具编号[不可重复]</t>
   </si>
@@ -89,9 +89,6 @@
     <t>功能参数3</t>
   </si>
   <si>
-    <t>功能参数4</t>
-  </si>
-  <si>
     <t>道具描述</t>
   </si>
   <si>
@@ -146,16 +143,10 @@
     <t>Parameter3</t>
   </si>
   <si>
-    <t>Parameter4</t>
-  </si>
-  <si>
     <t>Describe</t>
   </si>
   <si>
     <t>Server</t>
-  </si>
-  <si>
-    <t>Parameter5</t>
   </si>
   <si>
     <t>forage1000</t>
@@ -436,10 +427,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -456,7 +447,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,75 +463,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,7 +484,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,32 +560,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,181 +605,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,9 +829,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,30 +871,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -899,11 +886,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,11 +918,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,10 +930,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -951,133 +942,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1449,10 +1440,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1465,12 +1456,12 @@
     <col min="6" max="6" width="22.75" style="3" customWidth="1"/>
     <col min="7" max="8" width="13" style="3" customWidth="1"/>
     <col min="9" max="9" width="9" style="3"/>
-    <col min="10" max="13" width="11.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="49.75" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="10" max="12" width="11.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="49.75" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:14">
+    <row r="1" s="1" customFormat="1" spans="2:13">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1507,145 +1498,136 @@
       <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="2:13">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="2:14">
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="5" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="2:14">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
@@ -1665,26 +1647,25 @@
       <c r="L5" s="8">
         <v>100</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
+      <c r="M5" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" s="9">
         <v>2</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
@@ -1704,26 +1685,25 @@
       <c r="L6" s="9">
         <v>500</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
+      <c r="M6" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="9">
         <v>3</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7" s="9">
         <v>1</v>
@@ -1743,26 +1723,25 @@
       <c r="L7" s="9">
         <v>1000</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
+      <c r="M7" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="9">
         <v>4</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
@@ -1782,26 +1761,25 @@
       <c r="L8" s="9">
         <v>5000</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
+      <c r="M8" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E9" s="9">
         <v>5</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9" s="9">
         <v>1</v>
@@ -1821,26 +1799,25 @@
       <c r="L9" s="9">
         <v>10000</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
+      <c r="M9" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" s="9">
         <v>5</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
@@ -1860,26 +1837,25 @@
       <c r="L10" s="9">
         <v>20000</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
+      <c r="M10" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" s="9">
         <v>1</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11" s="9">
         <v>1</v>
@@ -1899,26 +1875,25 @@
       <c r="L11" s="9">
         <v>100</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14">
+      <c r="M11" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="9">
         <v>2</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
@@ -1938,26 +1913,25 @@
       <c r="L12" s="9">
         <v>500</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14">
+      <c r="M12" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E13" s="9">
         <v>3</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13" s="9">
         <v>1</v>
@@ -1977,26 +1951,25 @@
       <c r="L13" s="9">
         <v>1000</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
+      <c r="M13" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E14" s="9">
         <v>4</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
@@ -2016,26 +1989,25 @@
       <c r="L14" s="9">
         <v>5000</v>
       </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
+      <c r="M14" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15" s="9">
         <v>5</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" s="9">
         <v>1</v>
@@ -2055,26 +2027,25 @@
       <c r="L15" s="9">
         <v>10000</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14">
+      <c r="M15" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" s="9">
         <v>5</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="9">
         <v>1</v>
@@ -2094,26 +2065,25 @@
       <c r="L16" s="9">
         <v>20000</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
+      <c r="M16" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G17" s="9">
         <v>1</v>
@@ -2133,26 +2103,25 @@
       <c r="L17" s="9">
         <v>100</v>
       </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
+      <c r="M17" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E18" s="9">
         <v>2</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" s="9">
         <v>1</v>
@@ -2172,26 +2141,25 @@
       <c r="L18" s="9">
         <v>500</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
+      <c r="M18" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E19" s="9">
         <v>3</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G19" s="9">
         <v>1</v>
@@ -2211,26 +2179,25 @@
       <c r="L19" s="9">
         <v>1000</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
+      <c r="M19" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E20" s="9">
         <v>4</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G20" s="9">
         <v>1</v>
@@ -2250,26 +2217,25 @@
       <c r="L20" s="9">
         <v>5000</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
+      <c r="M20" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E21" s="9">
         <v>5</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21" s="9">
         <v>1</v>
@@ -2289,26 +2255,25 @@
       <c r="L21" s="9">
         <v>10000</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
+      <c r="M21" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E22" s="9">
         <v>5</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G22" s="9">
         <v>1</v>
@@ -2328,26 +2293,25 @@
       <c r="L22" s="9">
         <v>20000</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
+      <c r="M22" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E23" s="9">
         <v>1</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G23" s="9">
         <v>1</v>
@@ -2367,26 +2331,25 @@
       <c r="L23" s="9">
         <v>100</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
+      <c r="M23" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E24" s="9">
         <v>2</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G24" s="9">
         <v>1</v>
@@ -2406,26 +2369,25 @@
       <c r="L24" s="9">
         <v>500</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14">
+      <c r="M24" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
       <c r="B25" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E25" s="9">
         <v>3</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G25" s="9">
         <v>1</v>
@@ -2445,26 +2407,25 @@
       <c r="L25" s="9">
         <v>1000</v>
       </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14">
+      <c r="M25" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E26" s="9">
         <v>4</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G26" s="9">
         <v>1</v>
@@ -2484,26 +2445,25 @@
       <c r="L26" s="9">
         <v>5000</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14">
+      <c r="M26" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
       <c r="B27" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E27" s="9">
         <v>5</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G27" s="9">
         <v>1</v>
@@ -2523,26 +2483,25 @@
       <c r="L27" s="9">
         <v>10000</v>
       </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14">
+      <c r="M27" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
       <c r="B28" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E28" s="9">
         <v>5</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G28" s="9">
         <v>1</v>
@@ -2562,26 +2521,25 @@
       <c r="L28" s="9">
         <v>20000</v>
       </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14">
+      <c r="M28" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
       <c r="B29" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E29" s="9">
         <v>1</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29" s="9">
         <v>1</v>
@@ -2601,26 +2559,25 @@
       <c r="L29" s="9">
         <v>100</v>
       </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14">
+      <c r="M29" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
       <c r="B30" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E30" s="9">
         <v>2</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G30" s="9">
         <v>1</v>
@@ -2640,26 +2597,25 @@
       <c r="L30" s="9">
         <v>500</v>
       </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14">
+      <c r="M30" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E31" s="9">
         <v>3</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G31" s="9">
         <v>1</v>
@@ -2679,26 +2635,25 @@
       <c r="L31" s="9">
         <v>1000</v>
       </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14">
+      <c r="M31" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
       <c r="B32" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E32" s="9">
         <v>4</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G32" s="9">
         <v>1</v>
@@ -2718,26 +2673,25 @@
       <c r="L32" s="9">
         <v>5000</v>
       </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14">
+      <c r="M32" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
       <c r="B33" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E33" s="9">
         <v>5</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G33" s="9">
         <v>1</v>
@@ -2757,26 +2711,25 @@
       <c r="L33" s="9">
         <v>10000</v>
       </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14">
+      <c r="M33" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
       <c r="B34" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E34" s="9">
         <v>5</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G34" s="9">
         <v>1</v>
@@ -2796,12 +2749,11 @@
       <c r="L34" s="9">
         <v>20000</v>
       </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14">
+      <c r="M34" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
       <c r="D37" s="13"/>
@@ -2813,9 +2765,8 @@
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-    </row>
-    <row r="38" spans="2:14">
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
@@ -2827,9 +2778,8 @@
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-    </row>
-    <row r="39" spans="2:14">
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
       <c r="D39" s="13"/>
@@ -2841,9 +2791,8 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-    </row>
-    <row r="40" spans="2:14">
+    </row>
+    <row r="40" spans="2:13">
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
       <c r="D40" s="13"/>
@@ -2855,9 +2804,8 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-    </row>
-    <row r="41" spans="2:14">
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
       <c r="D41" s="13"/>
@@ -2869,7 +2817,6 @@
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="3"/>
